--- a/mcmaster_excel/Modular_Mini_Chain_Belt_Conveyors.xlsx
+++ b/mcmaster_excel/Modular_Mini_Chain_Belt_Conveyors.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MountingHole Location</t>
+          <t>Mounting Hole Location</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pkg.Qty.</t>
+          <t>Pkg. Qty.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -4233,17 +4233,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HoleLocation</t>
+          <t>Hole Location</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FastenerThread Size</t>
+          <t>Fastener Thread Size</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FastenerThread Lg.</t>
+          <t>Fastener Thread Lg.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Pkg.Qty.</t>
+          <t>Pkg. Qty.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MountingHole Location</t>
+          <t>Mounting Hole Location</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pkg.Qty.</t>
+          <t>Pkg. Qty.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doubleand Quad</t>
+          <t>Double and Quad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -13150,22 +13150,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HoleLocation</t>
+          <t>Hole Location</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>For ScrewSize</t>
+          <t>For Screw Size</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FastenerThread Size</t>
+          <t>Fastener Thread Size</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FastenerThread Lg.</t>
+          <t>Fastener Thread Lg.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -13190,7 +13190,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Pkg.Qty.</t>
+          <t>Pkg. Qty.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -18782,27 +18782,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>For RailHt., mm</t>
+          <t>For Rail Ht., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ThreadSize</t>
+          <t>Thread Size</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lg.,mm</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thick.,mm</t>
+          <t>Thick., mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pkg.Qty.</t>
+          <t>Pkg. Qty.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -19078,7 +19078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19158,7 +19158,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For T-SlotWd.</t>
+          <t>For T-Slot Wd.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -19203,25 +19203,65 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20mm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11 mm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4766N93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$8.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4766N92</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>$20.33</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4766N91</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>$36.95</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>M8 x 1.25mm</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20mm</t>
+          <t>35mm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -19241,41 +19281,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4766N93</t>
+          <t>4766N96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$8.87</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4766N92</t>
+          <t>4766N95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$20.33</t>
+          <t>24.64</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4766N91</t>
+          <t>4766N94</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$36.95</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>M8 x 1.25mm</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>35mm</t>
+          <t>53mm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -19295,41 +19339,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4766N96</t>
+          <t>4766N99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>16.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4766N95</t>
+          <t>4766N98</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>36.89</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4766N94</t>
+          <t>4766N97</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>44.80</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M8 x 1.25mm</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>53mm</t>
+          <t>71mm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -19349,90 +19397,40 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4766N99</t>
+          <t>4766N113</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16.09</t>
+          <t>23.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4766N98</t>
+          <t>4766N112</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>36.89</t>
+          <t>54.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4766N97</t>
+          <t>4766N111</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>67.05</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>M8 x 1.25mm</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>71mm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11 mm</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Steel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4766N113</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>23.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4766N112</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>54.65</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4766N111</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
